--- a/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S04.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/dbIdcImport/S04.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/dbIdcImport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.20.205.11\Massafra\MassafraSQL\ProLeiTAG\Massafra\Update\Values\dbIdcImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF24009D-8ED9-1C4E-984C-1F2E58DB740A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="-21600" windowWidth="25400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="LiTSeqSupplValues" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Windows User</author>
   </authors>
   <commentList>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="R2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="S2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -279,9 +278,6 @@
     <t>Enum</t>
   </si>
   <si>
-    <t>01 Raw Material Silos</t>
-  </si>
-  <si>
     <t>Value 026</t>
   </si>
   <si>
@@ -345,9 +341,6 @@
     <t>AM_Local</t>
   </si>
   <si>
-    <t>01 Raw Material type</t>
-  </si>
-  <si>
     <t>Value 012</t>
   </si>
   <si>
@@ -385,12 +378,18 @@
   </si>
   <si>
     <t>020: Maize Type Outtake 1</t>
+  </si>
+  <si>
+    <t>Maltsilos</t>
+  </si>
+  <si>
+    <t>Malttype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -755,50 +754,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" style="3"/>
-    <col min="18" max="18" width="20.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="3"/>
+    <col min="16" max="16" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -833,7 +832,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -892,7 +891,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -927,7 +926,7 @@
         <v>10</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>6</v>
@@ -951,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -962,10 +961,10 @@
         <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="3">
         <v>26</v>
@@ -986,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>6</v>
@@ -1010,7 +1009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1021,10 +1020,10 @@
         <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="F5" s="3">
         <v>27</v>
@@ -1039,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>10</v>
@@ -1066,7 +1065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1077,10 +1076,10 @@
         <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="F6" s="3">
         <v>28</v>
@@ -1095,7 +1094,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>10</v>
@@ -1122,7 +1121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1133,10 +1132,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F7" s="3">
         <v>23</v>
@@ -1145,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>10</v>
@@ -1172,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1189,10 +1188,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="F8" s="3">
         <v>37</v>
@@ -1213,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>6</v>
@@ -1237,7 +1236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1248,10 +1247,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="F9" s="3">
         <v>38</v>
@@ -1272,7 +1271,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>6</v>
@@ -1296,7 +1295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1307,10 +1306,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="F10" s="3">
         <v>43</v>
@@ -1325,7 +1324,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>10</v>
@@ -1352,7 +1351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1363,10 +1362,10 @@
         <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="F11" s="3">
         <v>46</v>
@@ -1381,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>10</v>
@@ -1408,7 +1407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1416,19 +1415,19 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>39</v>
@@ -1443,7 +1442,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>6</v>
@@ -1467,7 +1466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1475,13 +1474,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="3">
         <v>12</v>
@@ -1496,7 +1495,7 @@
         <v>7</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>9</v>
@@ -1523,7 +1522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1531,13 +1530,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3">
         <v>13</v>
@@ -1552,7 +1551,7 @@
         <v>7</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>9</v>
@@ -1579,7 +1578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1587,19 +1586,19 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F15" s="3">
         <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>39</v>
@@ -1614,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>6</v>
@@ -1638,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1646,13 +1645,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F16" s="3">
         <v>31</v>
@@ -1667,7 +1666,7 @@
         <v>7</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>9</v>
@@ -1694,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1702,13 +1701,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F17" s="3">
         <v>34</v>
@@ -1723,7 +1722,7 @@
         <v>7</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>9</v>
